--- a/Problem Set 5KaileyBoettcher.xlsx
+++ b/Problem Set 5KaileyBoettcher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7aae43f62c39fb3/Documents/XCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{84045C87-C997-40E7-871B-4BFEAD2DAEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB9EFBF4-B9F3-4C60-8B2E-0660092C1297}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{84045C87-C997-40E7-871B-4BFEAD2DAEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ECEA22E-280F-4CC9-AE06-55E461FFB012}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{6C081BF3-749E-4279-A6AB-41BC87797E55}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="31">
   <si>
     <t>Manager</t>
   </si>
@@ -124,6 +124,15 @@
   <si>
     <t>pop proportion</t>
   </si>
+  <si>
+    <t>samp p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
 </sst>
 </file>
 
@@ -158,12 +167,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,7 +201,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -199,6 +220,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,6 +1264,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -29916,7 +29943,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29933,41 +29960,106 @@
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11">
+        <f>COUNTIF(B2:B101, 1)</f>
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <f>_xlfn.NORM.S.DIST(G17,TRUE)</f>
+        <v>0.84134474606854304</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11">
+        <f>1-D5</f>
+        <v>0.15865525393145696</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
@@ -29979,6 +30071,9 @@
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
@@ -29990,6 +30085,9 @@
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
@@ -30001,6 +30099,9 @@
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
@@ -30012,11 +30113,17 @@
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.5">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
@@ -30025,11 +30132,17 @@
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.5">
       <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
@@ -30038,6 +30151,9 @@
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
@@ -30049,11 +30165,17 @@
       <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.5">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
@@ -30065,11 +30187,17 @@
       <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.5">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
@@ -30081,400 +30209,640 @@
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.5">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15.5">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15.5">
       <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15.5">
       <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15.5">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="15.5">
       <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15.5">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15.5">
       <c r="A30" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15.5">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="15.5">
       <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.5">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.5">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5">
       <c r="A34" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.5">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.5">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.5">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.5">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.5">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.5">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.5">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.5">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5">
       <c r="A42" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.5">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5">
       <c r="A43" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.5">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5">
       <c r="A44" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.5">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.5">
       <c r="A45" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.5">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.5">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.5">
       <c r="A47" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.5">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.5">
       <c r="A48" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.5">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5">
       <c r="A49" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.5">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5">
       <c r="A50" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.5">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.5">
       <c r="A51" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.5">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.5">
       <c r="A52" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.5">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.5">
       <c r="A53" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.5">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5">
       <c r="A54" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.5">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5">
       <c r="A55" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.5">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5">
       <c r="A56" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.5">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5">
       <c r="A57" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.5">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5">
       <c r="A58" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.5">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5">
       <c r="A59" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.5">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5">
       <c r="A60" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.5">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5">
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.5">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5">
       <c r="A62" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.5">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5">
       <c r="A63" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.5">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5">
       <c r="A64" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.5">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.5">
       <c r="A65" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.5">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.5">
       <c r="A66" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.5">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.5">
       <c r="A67" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.5">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.5">
       <c r="A68" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.5">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.5">
       <c r="A69" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.5">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.5">
       <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.5">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.5">
       <c r="A71" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.5">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.5">
       <c r="A72" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.5">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.5">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.5">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.5">
       <c r="A74" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.5">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.5">
       <c r="A75" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.5">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.5">
       <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.5">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.5">
       <c r="A77" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.5">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.5">
       <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.5">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.5">
       <c r="A79" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.5">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.5">
       <c r="A80" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.5">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.5">
       <c r="A81" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.5">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.5">
       <c r="A82" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.5">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.5">
       <c r="A83" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.5">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.5">
       <c r="A84" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.5">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.5">
       <c r="A85" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.5">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.5">
       <c r="A86" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.5">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.5">
       <c r="A87" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.5">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.5">
       <c r="A88" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.5">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.5">
       <c r="A89" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.5">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.5">
       <c r="A90" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.5">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.5">
       <c r="A91" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.5">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.5">
       <c r="A92" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15.5">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.5">
       <c r="A93" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15.5">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.5">
       <c r="A94" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15.5">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.5">
       <c r="A95" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15.5">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.5">
       <c r="A96" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.5">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.5">
       <c r="A97" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.5">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.5">
       <c r="A98" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.5">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.5">
       <c r="A99" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.5">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.5">
       <c r="A100" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.5">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.5">
       <c r="A101" s="8" t="s">
         <v>3</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
